--- a/Fireball Test.xlsx
+++ b/Fireball Test.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4F23C3-DA20-4AB0-970B-21F7304356F2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="S22" sheetId="1" r:id="rId1"/>
+    <sheet name="S66" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'S22'!$H$1:$H$26</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>2-pyridoxine 2-aminopyridine complex</t>
   </si>
@@ -128,45 +131,136 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>H O</t>
+  </si>
+  <si>
+    <t>H N</t>
+  </si>
+  <si>
+    <t>H C O</t>
+  </si>
+  <si>
+    <t>H C N O</t>
+  </si>
+  <si>
+    <t>H C</t>
+  </si>
+  <si>
+    <t>H C N</t>
+  </si>
+  <si>
+    <t>Fireball test1</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Atom Number</t>
+  </si>
+  <si>
+    <t>This means the potential for the simulation is wrong</t>
+  </si>
+  <si>
+    <t>This means the results is nowhere close to the reference results.</t>
+  </si>
+  <si>
+    <t>This means the results is close to the reference.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -174,21 +268,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Linked Cell" xfId="3" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,417 +582,751 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="56.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
         <v>-5.0199999999999996</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="3">
         <v>-5.03</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="7">
         <v>-3.07</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3">
         <v>-3.17</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="3">
         <v>-3.2</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="7">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
         <v>-18.61</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="3">
         <v>-18.600000000000001</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="7">
         <v>-3.66</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickTop="1">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3">
         <v>-15.96</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="3">
         <v>-15.86</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="8">
         <v>-4.2300000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3">
         <v>-20.47</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="3">
         <v>-20.43</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="8">
         <v>-11.81</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3">
         <v>-16.71</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="3">
         <v>-17.37</v>
       </c>
-      <c r="E8">
-        <v>-2955.9280226300002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="F8" s="9">
+        <v>-19.79</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3">
         <v>-16.37</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="3">
         <v>-16.54</v>
       </c>
-      <c r="E9">
+      <c r="F9" s="9">
         <v>-15.15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
         <v>-0.53</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="3">
         <v>-0.51</v>
       </c>
-      <c r="E11">
+      <c r="F11" s="7">
         <v>-5.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3">
         <v>-1.51</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="3">
         <v>-1.62</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="7">
         <v>-6.69</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3">
         <v>-1.5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="3">
         <v>-1.86</v>
       </c>
-      <c r="E13">
+      <c r="F13" s="7">
         <v>-11.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3">
         <v>-2.73</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="3">
         <v>-4.95</v>
       </c>
-      <c r="E14">
+      <c r="F14" s="7">
         <v>-25.74</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3">
         <v>-4.42</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="3">
         <v>-6.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="F15" s="7">
+        <v>-16.190000000000001</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickTop="1">
+      <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3">
         <v>-9.8800000000000008</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="3">
         <v>-11.15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="F16" s="8">
+        <v>-15.47</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>28</v>
+      </c>
+      <c r="D17" s="3">
         <v>-5.22</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="3">
         <v>-8.1199999999999992</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="F17" s="7">
+        <v>-30.42</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickTop="1">
+      <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3">
         <v>-12.23</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="3">
         <v>-14.93</v>
       </c>
-      <c r="E18">
-        <v>-4469.1751058500004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="F18" s="8">
+        <v>-20.56</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3">
         <v>-1.53</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="3">
         <v>-1.69</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="F20" s="7">
+        <v>-5.44</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3">
         <v>-3.28</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="3">
         <v>-3.61</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="F21" s="7">
+        <v>-15.77</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>16</v>
+      </c>
+      <c r="D22" s="3">
         <v>-2.35</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="3">
         <v>-2.72</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="F22" s="7">
+        <v>-17.64</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3">
         <v>-4.46</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="3">
         <v>-5.16</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="F23" s="7">
+        <v>-11.76</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>24</v>
+      </c>
+      <c r="D24" s="3">
         <v>-2.74</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="3">
         <v>-3.62</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="F24" s="7">
+        <v>-20.89</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>28</v>
+      </c>
+      <c r="D25" s="3">
         <v>-5.73</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="3">
         <v>-7.03</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="F25" s="7">
+        <v>-24.79</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>26</v>
+      </c>
+      <c r="D26" s="3">
         <v>-7.05</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="3">
         <v>-7.76</v>
       </c>
+      <c r="F26" s="7">
+        <v>-19.98</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" thickTop="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1">
+      <c r="B30" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickTop="1">
+      <c r="B31" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="H1:H26"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Fireball Test.xlsx
+++ b/Fireball Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="S22" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>2-pyridoxine 2-aminopyridine complex</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>This means the results is close to the reference.</t>
+  </si>
+  <si>
+    <t>Fireball test2</t>
   </si>
 </sst>
 </file>
@@ -592,20 +595,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K4" sqref="K4"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="56.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -627,7 +631,9 @@
       <c r="F1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
@@ -708,7 +714,9 @@
       <c r="J4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="4" t="s">
@@ -737,7 +745,9 @@
       <c r="J5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickTop="1">
       <c r="A6" s="4" t="s">
@@ -766,7 +776,9 @@
       <c r="J6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
@@ -824,7 +836,9 @@
       <c r="J8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
@@ -1323,7 +1337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/Fireball Test.xlsx
+++ b/Fireball Test.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7917454-FDBA-4D11-83C1-54135489026B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="17250" windowHeight="6885"/>
   </bookViews>
   <sheets>
     <sheet name="S22" sheetId="1" r:id="rId1"/>
     <sheet name="S66" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'S22'!$H$1:$H$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'S22'!$I$1:$I$26</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>2-pyridoxine 2-aminopyridine complex</t>
   </si>
@@ -102,86 +101,128 @@
   </si>
   <si>
     <t>Water dimer</t>
-  </si>
-  <si>
-    <t>CCSD(T) / CBS CP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP2 /CBS CP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Hydrogen bonded complexes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">System name </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Optimization level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Complexes with predominant dispersion contribution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mixed complexes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>H O</t>
-  </si>
-  <si>
-    <t>H N</t>
-  </si>
-  <si>
-    <t>H C O</t>
-  </si>
-  <si>
-    <t>H C N O</t>
-  </si>
-  <si>
-    <t>H C</t>
-  </si>
-  <si>
-    <t>H C N</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Atom Number</t>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fireball grand total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Monomer</t>
+  </si>
+  <si>
+    <t>HCN</t>
+  </si>
+  <si>
+    <t>Indole</t>
+  </si>
+  <si>
+    <t>Methane</t>
+  </si>
+  <si>
+    <t>Phenol</t>
+  </si>
+  <si>
+    <t>Pyrazine</t>
+  </si>
+  <si>
+    <t>Thymine</t>
+  </si>
+  <si>
+    <t>Uracil</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>2-Aminopyridine</t>
+  </si>
+  <si>
+    <t>2-Pyridoxine</t>
+  </si>
+  <si>
+    <t>Adenine</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>Ethene</t>
+  </si>
+  <si>
+    <t>Ethyne</t>
+  </si>
+  <si>
+    <t>Formamide</t>
+  </si>
+  <si>
+    <t>Formic Acid</t>
+  </si>
+  <si>
+    <t>CCSD(T) / CBS CP (kcal/mol)</t>
+  </si>
+  <si>
+    <t>MP2 /CBS CP (kcal/mol)</t>
+  </si>
+  <si>
+    <t>With predominant dispersion contribution</t>
+  </si>
+  <si>
+    <t>E-fbgrand-nomin (eV)</t>
+  </si>
+  <si>
+    <t>E-fbinter-nomin (eV)</t>
+  </si>
+  <si>
+    <t>E-fbinter-nomin (kcal/mol)</t>
+  </si>
+  <si>
+    <t>E-fbgrand-min (eV)</t>
+  </si>
+  <si>
+    <t>E-fbinter-min (eV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System name </t>
+  </si>
+  <si>
+    <t>E-fbinter-min (kcal/mol)</t>
+  </si>
+  <si>
+    <t>No minimization</t>
+  </si>
+  <si>
+    <t>Both monomer and dimer minimized</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -191,13 +232,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -228,12 +262,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -246,6 +280,1214 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'S22'!$A$3:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Water dimer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ammonia dimer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Formic acid dimer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Formamide dimer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Uracil dimer h-bonded</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2-pyridoxine 2-aminopyridine complex</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adenine thymine Watson-Crick complex</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>With predominant dispersion contribution</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Methane dimer</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ethene dimer</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Benzene - Methane complex</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Benzene dimer parallel displaced</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Pyrazine dimer</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Uracil dimer stack</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Indole benzene complex stack</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Adenine thymine complex stack</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Mixed complexes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ethene ethyne complex</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Benzene water complex</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Benzene ammonia complex</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Benzene HCN complex</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Benzene dimer T-shaped</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Indole benzene T-shape complex</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Phenol dimer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'S22'!$D$3:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-18.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-15.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-16.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-12.23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.74</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.73</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'S22'!$A$3:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Water dimer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ammonia dimer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Formic acid dimer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Formamide dimer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Uracil dimer h-bonded</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2-pyridoxine 2-aminopyridine complex</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adenine thymine Watson-Crick complex</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>With predominant dispersion contribution</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Methane dimer</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ethene dimer</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Benzene - Methane complex</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Benzene dimer parallel displaced</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Pyrazine dimer</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Uracil dimer stack</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Indole benzene complex stack</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Adenine thymine complex stack</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Mixed complexes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ethene ethyne complex</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Benzene water complex</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Benzene ammonia complex</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Benzene HCN complex</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Benzene dimer T-shaped</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Indole benzene T-shape complex</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Phenol dimer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'S22'!$E$3:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-5.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-15.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-17.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-11.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-14.93</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.61</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.72</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.62</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.03</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'S22'!$A$3:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Water dimer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ammonia dimer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Formic acid dimer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Formamide dimer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Uracil dimer h-bonded</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2-pyridoxine 2-aminopyridine complex</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adenine thymine Watson-Crick complex</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>With predominant dispersion contribution</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Methane dimer</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ethene dimer</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Benzene - Methane complex</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Benzene dimer parallel displaced</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Pyrazine dimer</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Uracil dimer stack</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Indole benzene complex stack</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Adenine thymine complex stack</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Mixed complexes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ethene ethyne complex</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Benzene water complex</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Benzene ammonia complex</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Benzene HCN complex</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Benzene dimer T-shaped</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Indole benzene T-shape complex</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Phenol dimer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'S22'!$H$3:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-9.18678036009225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.5121390128299206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-41.908545214292189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-31.470762795480169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-36.981151386665658</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-36.591959652836366</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-33.456275691775005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.90664482926968781</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.0099405382696656</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6117325064210815</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.6768879969905566</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.7721594921799291</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-16.21724560493054</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.9283626227116937</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-22.50893949245911</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.7635833344191276</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.7402987840495641</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5.3596545156587228</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.3221090404207301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.0098657288800093</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-10.001699600645065</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-16.75237426505868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="50787072"/>
+        <c:axId val="51202304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50787072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51202304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="51202304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50787072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'S22'!$A$3:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Water dimer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ammonia dimer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Formic acid dimer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Formamide dimer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Uracil dimer h-bonded</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2-pyridoxine 2-aminopyridine complex</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adenine thymine Watson-Crick complex</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>With predominant dispersion contribution</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Methane dimer</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ethene dimer</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Benzene - Methane complex</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Benzene dimer parallel displaced</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Pyrazine dimer</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Uracil dimer stack</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Indole benzene complex stack</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Adenine thymine complex stack</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Mixed complexes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ethene ethyne complex</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Benzene water complex</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Benzene ammonia complex</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Benzene HCN complex</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Benzene dimer T-shaped</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Indole benzene T-shape complex</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Phenol dimer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'S22'!$D$3:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-18.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-15.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-16.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-12.23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.74</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.73</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'S22'!$A$3:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Water dimer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ammonia dimer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Formic acid dimer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Formamide dimer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Uracil dimer h-bonded</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2-pyridoxine 2-aminopyridine complex</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adenine thymine Watson-Crick complex</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>With predominant dispersion contribution</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Methane dimer</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ethene dimer</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Benzene - Methane complex</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Benzene dimer parallel displaced</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Pyrazine dimer</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Uracil dimer stack</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Indole benzene complex stack</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Adenine thymine complex stack</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Mixed complexes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ethene ethyne complex</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Benzene water complex</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Benzene ammonia complex</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Benzene HCN complex</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Benzene dimer T-shaped</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Indole benzene T-shape complex</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Phenol dimer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'S22'!$E$3:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-5.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-15.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-17.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-11.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-14.93</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.61</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.72</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.62</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.03</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'S22'!$A$3:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Water dimer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ammonia dimer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Formic acid dimer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Formamide dimer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Uracil dimer h-bonded</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2-pyridoxine 2-aminopyridine complex</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adenine thymine Watson-Crick complex</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>With predominant dispersion contribution</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Methane dimer</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ethene dimer</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Benzene - Methane complex</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Benzene dimer parallel displaced</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Pyrazine dimer</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Uracil dimer stack</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Indole benzene complex stack</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Adenine thymine complex stack</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Mixed complexes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ethene ethyne complex</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Benzene water complex</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Benzene ammonia complex</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Benzene HCN complex</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Benzene dimer T-shaped</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Indole benzene T-shape complex</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Phenol dimer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'S22'!$K$3:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-11.408646367831459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.1548609827984277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-47.554003696743521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-35.221653355499093</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-42.629668218935414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-41.839631566777754</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-39.423928399033258</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.8646585914800742</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.6729699777310461</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.11903327186753461</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.6486744331138627</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-11.809572691499344</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-20.580881693995757</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-14.122032915298492</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.2794953549885304</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-12.998035163098551</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-10.997499870177235</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.810299663497684</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.3209148947311036</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9.285475674832302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-21.413256958500774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="52672768"/>
+        <c:axId val="52682752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="52672768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52682752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="52682752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52672768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,63 +1745,74 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F3" sqref="F3"/>
+      <selection pane="topRight" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="30">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -572,7 +1825,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -588,20 +1841,30 @@
       <c r="E3" s="1">
         <v>-5.03</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>-932.44943909000006</v>
+      </c>
+      <c r="G3" s="1">
+        <f>F3-F44-F44</f>
+        <v>-0.39836869000009756</v>
+      </c>
+      <c r="H3" s="1">
+        <f>G3*23.061</f>
+        <v>-9.18678036009225</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-932.54962505000003</v>
+      </c>
+      <c r="J3" s="1">
+        <f>I3-I44-I44</f>
+        <v>-0.49471603000006326</v>
+      </c>
+      <c r="K3" s="1">
+        <f>J3*23.061</f>
+        <v>-11.408646367831459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -617,19 +1880,30 @@
       <c r="E4" s="1">
         <v>-3.2</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>-633.83247260999997</v>
+      </c>
+      <c r="G4" s="1">
+        <f>F4-F31-F31</f>
+        <v>-0.19566102999999657</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H26" si="0">G4*23.061</f>
+        <v>-4.5121390128299206</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-633.93455505999998</v>
+      </c>
+      <c r="J4" s="1">
+        <f>I4-I31-I31</f>
+        <v>-0.26689479999993182</v>
+      </c>
+      <c r="K4" s="1">
+        <f>J4*23.061</f>
+        <v>-6.1548609827984277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -645,19 +1919,30 @@
       <c r="E5" s="1">
         <v>-18.600000000000001</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>-2115.4247979900001</v>
+      </c>
+      <c r="G5" s="1">
+        <f>F5-F36-F36</f>
+        <v>-1.8172908900000948</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>-41.908545214292189</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-2115.7950263600001</v>
+      </c>
+      <c r="J5" s="1">
+        <f>I5-I36-I36</f>
+        <v>-2.0620963400001528</v>
+      </c>
+      <c r="K5" s="1">
+        <f>J5*23.061</f>
+        <v>-47.554003696743521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -673,19 +1958,30 @@
       <c r="E6" s="1">
         <v>-15.86</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>-1816.7014716799999</v>
+      </c>
+      <c r="G6" s="1">
+        <f>F6-F35-F35</f>
+        <v>-1.3646746800000074</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>-31.470762795480169</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-1817.31082244</v>
+      </c>
+      <c r="J6" s="1">
+        <f>I6-I35-I35</f>
+        <v>-1.5273254999999608</v>
+      </c>
+      <c r="K6" s="1">
+        <f>J6*23.061</f>
+        <v>-35.221653355499093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -701,19 +1997,30 @@
       <c r="E7" s="1">
         <v>-20.43</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>-4193.0966072600004</v>
+      </c>
+      <c r="G7" s="1">
+        <f>F7-F43-F43</f>
+        <v>-1.6036230600002455</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>-36.981151386665658</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-4195.0755498300005</v>
+      </c>
+      <c r="J7" s="1">
+        <f>I7-I43-I43</f>
+        <v>-1.8485611300002347</v>
+      </c>
+      <c r="K7" s="1">
+        <f>J7*23.061</f>
+        <v>-42.629668218935414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,19 +2036,30 @@
       <c r="E8" s="1">
         <v>-17.37</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>-2972.3887897099999</v>
+      </c>
+      <c r="G8" s="1">
+        <f>F8-F28-F29</f>
+        <v>-1.5867464399998426</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>-36.591959652836366</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-2975.0108733400002</v>
+      </c>
+      <c r="J8" s="1">
+        <f>I8-I28-I29</f>
+        <v>-1.8143025700003363</v>
+      </c>
+      <c r="K8" s="1">
+        <f>J8*23.061</f>
+        <v>-41.839631566777754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -757,29 +2075,45 @@
       <c r="E9" s="1">
         <v>-16.54</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>-4491.4024936599999</v>
+      </c>
+      <c r="G9" s="1">
+        <f>F9-F30-F42</f>
+        <v>-1.4507729799997833</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>-33.456275691775005</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-4493.9817344800003</v>
+      </c>
+      <c r="J9" s="1">
+        <f>I9-I30-I42</f>
+        <v>-1.709549820000575</v>
+      </c>
+      <c r="K9" s="1">
+        <f>J9*23.061</f>
+        <v>-39.423928399033258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -795,15 +2129,30 @@
       <c r="E11" s="1">
         <v>-0.51</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <v>-435.57549759</v>
+      </c>
+      <c r="G11" s="1">
+        <f>F11-F39-F39</f>
+        <v>-3.9315069999986463E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.90664482926968781</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-436.08521417999998</v>
+      </c>
+      <c r="J11" s="1">
+        <f>I11-I39-I39</f>
+        <v>-0.25431068000000323</v>
+      </c>
+      <c r="K11" s="1">
+        <f>J11*23.061</f>
+        <v>-5.8646585914800742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -819,15 +2168,30 @@
       <c r="E12" s="1">
         <v>-1.62</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>-743.54887423000002</v>
+      </c>
+      <c r="G12" s="1">
+        <f>F12-F33-F33</f>
+        <v>-0.17388406999998551</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.0099405382696656</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-744.29053593000003</v>
+      </c>
+      <c r="J12" s="1">
+        <f>I12-I33-I33</f>
+        <v>-0.15927193000004536</v>
+      </c>
+      <c r="K12" s="1">
+        <f>J12*23.061</f>
+        <v>-3.6729699777310461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -843,15 +2207,30 @@
       <c r="E13" s="1">
         <v>-1.86</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>-1242.8943572200001</v>
+      </c>
+      <c r="G13" s="1">
+        <f>F13-F32-F39</f>
+        <v>-0.11325322000004689</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.6117325064210815</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-1244.4267592799999</v>
+      </c>
+      <c r="J13" s="1">
+        <f>I13-I32-I39</f>
+        <v>-5.1616699998930926E-3</v>
+      </c>
+      <c r="K13" s="1">
+        <f>J13*23.061</f>
+        <v>-0.11903327186753461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -867,15 +2246,30 @@
       <c r="E14" s="1">
         <v>-4.95</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>-2050.3155570700001</v>
+      </c>
+      <c r="G14" s="1">
+        <f>F14-F32-F32</f>
+        <v>-0.28953159000002415</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.6768879969905566</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-2053.4306896399999</v>
+      </c>
+      <c r="J14" s="1">
+        <f>I14-I32-I32</f>
+        <v>-0.41839791999973386</v>
+      </c>
+      <c r="K14" s="1">
+        <f>J14*23.061</f>
+        <v>-9.6486744331138627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -891,15 +2285,30 @@
       <c r="E15" s="1">
         <v>-6.9</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <v>-2448.0570715600002</v>
+      </c>
+      <c r="G15" s="1">
+        <f>F15-F41-F41</f>
+        <v>-0.38038937999999689</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.7721594921799291</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-2449.9390337999998</v>
+      </c>
+      <c r="J15" s="1">
+        <f>I15-I41-I41</f>
+        <v>-0.51210149999997157</v>
+      </c>
+      <c r="K15" s="1">
+        <f>J15*23.061</f>
+        <v>-11.809572691499344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -915,15 +2324,30 @@
       <c r="E16" s="1">
         <v>-11.15</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>-4192.1962167399997</v>
+      </c>
+      <c r="G16" s="1">
+        <f>F16-F43-F43</f>
+        <v>-0.70323253999958979</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>-16.21724560493054</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-4194.1194427</v>
+      </c>
+      <c r="J16" s="1">
+        <f>I16-I43-I43</f>
+        <v>-0.89245399999981601</v>
+      </c>
+      <c r="K16" s="1">
+        <f>J16*23.061</f>
+        <v>-20.580881693995757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -939,15 +2363,30 @@
       <c r="E17" s="1">
         <v>-8.1199999999999992</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>-2647.38616529</v>
+      </c>
+      <c r="G17" s="1">
+        <f>F17-F38-F32</f>
+        <v>-0.43052611000007346</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.9283626227116937</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-2651.1763167700001</v>
+      </c>
+      <c r="J17" s="1">
+        <f>I17-I38-I32</f>
+        <v>-0.61237729999993462</v>
+      </c>
+      <c r="K17" s="1">
+        <f>J17*23.061</f>
+        <v>-14.122032915298492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -963,29 +2402,37 @@
       <c r="E18" s="1">
         <v>-14.93</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>37</v>
+      <c r="F18" s="1">
+        <v>-4490.9277815400001</v>
+      </c>
+      <c r="G18" s="1">
+        <f>F18-F30-F42</f>
+        <v>-0.97606085999996139</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>-22.50893949245911</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -1001,15 +2448,30 @@
       <c r="E20" s="1">
         <v>-1.69</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>-709.85957074999999</v>
+      </c>
+      <c r="G20" s="1">
+        <f>F20-F33-F34</f>
+        <v>-0.16320121999996218</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.7635833344191276</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-710.50010855999994</v>
+      </c>
+      <c r="J20" s="1">
+        <f>I20-I33-I34</f>
+        <v>-0.14220958999993627</v>
+      </c>
+      <c r="K20" s="1">
+        <f>J20*23.061</f>
+        <v>-3.2794953549885304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1025,15 +2487,30 @@
       <c r="E21" s="1">
         <v>-3.61</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>-1491.46091899</v>
+      </c>
+      <c r="G21" s="1">
+        <f>F21-F32-F44</f>
+        <v>-0.4223710499999811</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.7402987840495641</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-1493.09723747</v>
+      </c>
+      <c r="J21" s="1">
+        <f>I21-I32-I44</f>
+        <v>-0.56363709999993716</v>
+      </c>
+      <c r="K21" s="1">
+        <f>J21*23.061</f>
+        <v>-12.998035163098551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1049,15 +2526,30 @@
       <c r="E22" s="1">
         <v>-2.72</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="F22" s="1">
+        <v>-1342.06383059</v>
+      </c>
+      <c r="G22" s="1">
+        <f>F22-F32-F31</f>
+        <v>-0.23241205999994463</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.3596545156587228</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-1343.81686337</v>
+      </c>
+      <c r="J22" s="1">
+        <f>I22-I32-I31</f>
+        <v>-0.47688737999988007</v>
+      </c>
+      <c r="K22" s="1">
+        <f>J22*23.061</f>
+        <v>-10.997499870177235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1073,15 +2565,30 @@
       <c r="E23" s="1">
         <v>-5.16</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="F23" s="1">
+        <v>-1464.3251176700001</v>
+      </c>
+      <c r="G23" s="1">
+        <f>F23-F32-F37</f>
+        <v>-0.27414722000003167</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.3221090404207301</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-1465.92511049</v>
+      </c>
+      <c r="J23" s="1">
+        <f>I23-I32-I37</f>
+        <v>-0.25195349999989958</v>
+      </c>
+      <c r="K23" s="1">
+        <f>J23*23.061</f>
+        <v>-5.810299663497684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1097,15 +2604,30 @@
       <c r="E24" s="1">
         <v>-3.62</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="F24" s="1">
+        <v>-2050.24326956</v>
+      </c>
+      <c r="G24" s="1">
+        <f>F24-F32-F32</f>
+        <v>-0.21724408000000039</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.0098657288800093</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-2053.1996606500002</v>
+      </c>
+      <c r="J24" s="1">
+        <f>I24-I32-I32</f>
+        <v>-0.18736893000004784</v>
+      </c>
+      <c r="K24" s="1">
+        <f>J24*23.061</f>
+        <v>-4.3209148947311036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
@@ -1121,15 +2643,30 @@
       <c r="E25" s="1">
         <v>-7.03</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="F25" s="1">
+        <v>-2647.3893454200002</v>
+      </c>
+      <c r="G25" s="1">
+        <f>F25-F38-F32</f>
+        <v>-0.43370624000021962</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>-10.001699600645065</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-2650.9665879099998</v>
+      </c>
+      <c r="J25" s="1">
+        <f>I25-I38-I32</f>
+        <v>-0.40264843999966615</v>
+      </c>
+      <c r="K25" s="1">
+        <f>J25*23.061</f>
+        <v>-9.285475674832302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -1145,36 +2682,390 @@
       <c r="E26" s="1">
         <v>-7.76</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="F26" s="1">
+        <v>-2921.23414404</v>
+      </c>
+      <c r="G26" s="1">
+        <f>F26-F40-F40</f>
+        <v>-0.7264374599999428</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>-16.75237426505868</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-2924.0029491</v>
+      </c>
+      <c r="J26" s="1">
+        <f>I26-I40-I40</f>
+        <v>-0.92854850000003353</v>
+      </c>
+      <c r="K26" s="1">
+        <f>J26*23.061</f>
+        <v>-21.413256958500774</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1">
+        <v>-1410.71868838</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1">
+        <v>-1411.9311109099999</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1">
+        <v>-1560.08335489</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1">
+        <v>-1561.26545986</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1">
+        <v>-2207.19076365</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1">
+        <v>-2208.4818033299998</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1">
+        <v>-316.81840578999999</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1">
+        <v>-316.83383013000002</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1">
+        <v>-1025.01301274</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1">
+        <v>-1026.5061458600001</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1">
+        <v>-371.68749508000002</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1">
+        <v>-372.06563199999999</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1">
+        <v>-338.00887445000001</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1">
+        <v>-338.29226697000001</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1">
+        <v>-907.66839849999997</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1">
+        <v>-907.89174847000004</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1">
+        <v>-1056.80375355</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1">
+        <v>-1056.86646501</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1">
+        <v>-439.03795771</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1">
+        <v>-439.16701112999999</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1">
+        <v>-1621.9426264399999</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1">
+        <v>-1624.0577936100001</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1">
+        <v>-217.76809126000001</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1">
+        <v>-217.91545174999999</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1">
+        <v>-1460.2538532900001</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1">
+        <v>-1461.5372003</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1">
+        <v>-1223.8383410900001</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1">
+        <v>-1224.7134661499999</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1">
+        <v>-2282.7609570300001</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1">
+        <v>-2283.7903813299999</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1">
+        <v>-2095.7464921000001</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1">
+        <v>-2096.6134943500001</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1">
+        <v>-466.02553519999998</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1">
+        <v>-466.02745450999998</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="F46" t="s">
+        <v>58</v>
+      </c>
+      <c r="I46" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H26" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fireball Test.xlsx
+++ b/Fireball Test.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="17250" windowHeight="6885"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="17250" windowHeight="6885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S22" sheetId="1" r:id="rId1"/>
-    <sheet name="S66" sheetId="2" r:id="rId2"/>
+    <sheet name="H2O CH4" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'S22'!$I$1:$I$26</definedName>
@@ -280,1214 +280,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'S22'!$A$3:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>Water dimer</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ammonia dimer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Formic acid dimer</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Formamide dimer</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Uracil dimer h-bonded</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2-pyridoxine 2-aminopyridine complex</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adenine thymine Watson-Crick complex</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>With predominant dispersion contribution</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Methane dimer</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Ethene dimer</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Benzene - Methane complex</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Benzene dimer parallel displaced</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Pyrazine dimer</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Uracil dimer stack</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Indole benzene complex stack</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Adenine thymine complex stack</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Mixed complexes</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Ethene ethyne complex</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Benzene water complex</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Benzene ammonia complex</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Benzene HCN complex</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Benzene dimer T-shaped</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Indole benzene T-shape complex</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Phenol dimer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'S22'!$D$3:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>-5.0199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-18.61</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-15.96</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-20.47</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-16.71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-16.37</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.51</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.73</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-4.42</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-9.8800000000000008</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-5.22</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-12.23</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1.53</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3.28</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-2.35</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-4.46</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.74</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-5.73</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-7.05</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'S22'!$A$3:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>Water dimer</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ammonia dimer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Formic acid dimer</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Formamide dimer</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Uracil dimer h-bonded</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2-pyridoxine 2-aminopyridine complex</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adenine thymine Watson-Crick complex</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>With predominant dispersion contribution</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Methane dimer</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Ethene dimer</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Benzene - Methane complex</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Benzene dimer parallel displaced</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Pyrazine dimer</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Uracil dimer stack</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Indole benzene complex stack</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Adenine thymine complex stack</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Mixed complexes</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Ethene ethyne complex</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Benzene water complex</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Benzene ammonia complex</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Benzene HCN complex</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Benzene dimer T-shaped</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Indole benzene T-shape complex</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Phenol dimer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'S22'!$E$3:$E$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>-5.03</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-15.86</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-20.43</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-17.37</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-16.54</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.51</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.62</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.86</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-4.95</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-6.9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-11.15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-8.1199999999999992</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-14.93</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1.69</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3.61</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-2.72</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-5.16</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-3.62</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-7.03</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-7.76</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'S22'!$A$3:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>Water dimer</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ammonia dimer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Formic acid dimer</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Formamide dimer</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Uracil dimer h-bonded</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2-pyridoxine 2-aminopyridine complex</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adenine thymine Watson-Crick complex</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>With predominant dispersion contribution</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Methane dimer</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Ethene dimer</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Benzene - Methane complex</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Benzene dimer parallel displaced</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Pyrazine dimer</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Uracil dimer stack</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Indole benzene complex stack</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Adenine thymine complex stack</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Mixed complexes</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Ethene ethyne complex</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Benzene water complex</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Benzene ammonia complex</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Benzene HCN complex</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Benzene dimer T-shaped</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Indole benzene T-shape complex</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Phenol dimer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'S22'!$H$3:$H$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>-9.18678036009225</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-4.5121390128299206</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-41.908545214292189</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-31.470762795480169</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-36.981151386665658</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-36.591959652836366</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-33.456275691775005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.90664482926968781</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-4.0099405382696656</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2.6117325064210815</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-6.6768879969905566</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-8.7721594921799291</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-16.21724560493054</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-9.9283626227116937</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-22.50893949245911</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-3.7635833344191276</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-9.7402987840495641</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-5.3596545156587228</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-6.3221090404207301</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-5.0098657288800093</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-10.001699600645065</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-16.75237426505868</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="50787072"/>
-        <c:axId val="51202304"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="50787072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51202304"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="51202304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50787072"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'S22'!$A$3:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>Water dimer</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ammonia dimer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Formic acid dimer</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Formamide dimer</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Uracil dimer h-bonded</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2-pyridoxine 2-aminopyridine complex</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adenine thymine Watson-Crick complex</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>With predominant dispersion contribution</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Methane dimer</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Ethene dimer</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Benzene - Methane complex</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Benzene dimer parallel displaced</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Pyrazine dimer</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Uracil dimer stack</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Indole benzene complex stack</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Adenine thymine complex stack</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Mixed complexes</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Ethene ethyne complex</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Benzene water complex</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Benzene ammonia complex</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Benzene HCN complex</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Benzene dimer T-shaped</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Indole benzene T-shape complex</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Phenol dimer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'S22'!$D$3:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>-5.0199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-18.61</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-15.96</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-20.47</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-16.71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-16.37</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.51</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.73</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-4.42</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-9.8800000000000008</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-5.22</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-12.23</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1.53</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3.28</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-2.35</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-4.46</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.74</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-5.73</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-7.05</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'S22'!$A$3:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>Water dimer</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ammonia dimer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Formic acid dimer</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Formamide dimer</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Uracil dimer h-bonded</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2-pyridoxine 2-aminopyridine complex</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adenine thymine Watson-Crick complex</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>With predominant dispersion contribution</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Methane dimer</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Ethene dimer</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Benzene - Methane complex</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Benzene dimer parallel displaced</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Pyrazine dimer</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Uracil dimer stack</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Indole benzene complex stack</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Adenine thymine complex stack</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Mixed complexes</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Ethene ethyne complex</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Benzene water complex</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Benzene ammonia complex</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Benzene HCN complex</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Benzene dimer T-shaped</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Indole benzene T-shape complex</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Phenol dimer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'S22'!$E$3:$E$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>-5.03</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-15.86</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-20.43</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-17.37</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-16.54</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.51</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.62</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.86</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-4.95</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-6.9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-11.15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-8.1199999999999992</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-14.93</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1.69</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3.61</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-2.72</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-5.16</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-3.62</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-7.03</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-7.76</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'S22'!$A$3:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>Water dimer</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ammonia dimer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Formic acid dimer</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Formamide dimer</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Uracil dimer h-bonded</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2-pyridoxine 2-aminopyridine complex</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adenine thymine Watson-Crick complex</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>With predominant dispersion contribution</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Methane dimer</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Ethene dimer</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Benzene - Methane complex</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Benzene dimer parallel displaced</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Pyrazine dimer</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Uracil dimer stack</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Indole benzene complex stack</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Adenine thymine complex stack</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Mixed complexes</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Ethene ethyne complex</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Benzene water complex</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Benzene ammonia complex</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Benzene HCN complex</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Benzene dimer T-shaped</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Indole benzene T-shape complex</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Phenol dimer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'S22'!$K$3:$K$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>-11.408646367831459</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-6.1548609827984277</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-47.554003696743521</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-35.221653355499093</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-42.629668218935414</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-41.839631566777754</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-39.423928399033258</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-5.8646585914800742</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-3.6729699777310461</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.11903327186753461</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-9.6486744331138627</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-11.809572691499344</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-20.580881693995757</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-14.122032915298492</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-3.2794953549885304</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-12.998035163098551</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-10.997499870177235</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-5.810299663497684</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-4.3209148947311036</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-9.285475674832302</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-21.413256958500774</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="52672768"/>
-        <c:axId val="52682752"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="52672768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52682752"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="52682752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52672768"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1745,7 +537,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1755,9 +547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K38" sqref="K38"/>
+      <selection pane="topRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1860,7 +652,7 @@
         <v>-0.49471603000006326</v>
       </c>
       <c r="K3" s="1">
-        <f>J3*23.061</f>
+        <f t="shared" ref="K3:K9" si="0">J3*23.061</f>
         <v>-11.408646367831459</v>
       </c>
     </row>
@@ -1888,7 +680,7 @@
         <v>-0.19566102999999657</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H26" si="0">G4*23.061</f>
+        <f t="shared" ref="H4:H26" si="1">G4*23.061</f>
         <v>-4.5121390128299206</v>
       </c>
       <c r="I4" s="1">
@@ -1899,7 +691,7 @@
         <v>-0.26689479999993182</v>
       </c>
       <c r="K4" s="1">
-        <f>J4*23.061</f>
+        <f t="shared" si="0"/>
         <v>-6.1548609827984277</v>
       </c>
     </row>
@@ -1927,7 +719,7 @@
         <v>-1.8172908900000948</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-41.908545214292189</v>
       </c>
       <c r="I5" s="1">
@@ -1938,7 +730,7 @@
         <v>-2.0620963400001528</v>
       </c>
       <c r="K5" s="1">
-        <f>J5*23.061</f>
+        <f t="shared" si="0"/>
         <v>-47.554003696743521</v>
       </c>
     </row>
@@ -1966,7 +758,7 @@
         <v>-1.3646746800000074</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-31.470762795480169</v>
       </c>
       <c r="I6" s="1">
@@ -1977,7 +769,7 @@
         <v>-1.5273254999999608</v>
       </c>
       <c r="K6" s="1">
-        <f>J6*23.061</f>
+        <f t="shared" si="0"/>
         <v>-35.221653355499093</v>
       </c>
     </row>
@@ -2005,7 +797,7 @@
         <v>-1.6036230600002455</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-36.981151386665658</v>
       </c>
       <c r="I7" s="1">
@@ -2016,7 +808,7 @@
         <v>-1.8485611300002347</v>
       </c>
       <c r="K7" s="1">
-        <f>J7*23.061</f>
+        <f t="shared" si="0"/>
         <v>-42.629668218935414</v>
       </c>
     </row>
@@ -2044,7 +836,7 @@
         <v>-1.5867464399998426</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-36.591959652836366</v>
       </c>
       <c r="I8" s="1">
@@ -2055,7 +847,7 @@
         <v>-1.8143025700003363</v>
       </c>
       <c r="K8" s="1">
-        <f>J8*23.061</f>
+        <f t="shared" si="0"/>
         <v>-41.839631566777754</v>
       </c>
     </row>
@@ -2083,7 +875,7 @@
         <v>-1.4507729799997833</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-33.456275691775005</v>
       </c>
       <c r="I9" s="1">
@@ -2094,7 +886,7 @@
         <v>-1.709549820000575</v>
       </c>
       <c r="K9" s="1">
-        <f>J9*23.061</f>
+        <f t="shared" si="0"/>
         <v>-39.423928399033258</v>
       </c>
     </row>
@@ -2137,7 +929,7 @@
         <v>-3.9315069999986463E-2</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.90664482926968781</v>
       </c>
       <c r="I11" s="1">
@@ -2148,7 +940,7 @@
         <v>-0.25431068000000323</v>
       </c>
       <c r="K11" s="1">
-        <f>J11*23.061</f>
+        <f t="shared" ref="K11:K17" si="2">J11*23.061</f>
         <v>-5.8646585914800742</v>
       </c>
     </row>
@@ -2176,7 +968,7 @@
         <v>-0.17388406999998551</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.0099405382696656</v>
       </c>
       <c r="I12" s="1">
@@ -2187,7 +979,7 @@
         <v>-0.15927193000004536</v>
       </c>
       <c r="K12" s="1">
-        <f>J12*23.061</f>
+        <f t="shared" si="2"/>
         <v>-3.6729699777310461</v>
       </c>
     </row>
@@ -2215,7 +1007,7 @@
         <v>-0.11325322000004689</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.6117325064210815</v>
       </c>
       <c r="I13" s="1">
@@ -2226,7 +1018,7 @@
         <v>-5.1616699998930926E-3</v>
       </c>
       <c r="K13" s="1">
-        <f>J13*23.061</f>
+        <f t="shared" si="2"/>
         <v>-0.11903327186753461</v>
       </c>
     </row>
@@ -2254,7 +1046,7 @@
         <v>-0.28953159000002415</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.6768879969905566</v>
       </c>
       <c r="I14" s="1">
@@ -2265,7 +1057,7 @@
         <v>-0.41839791999973386</v>
       </c>
       <c r="K14" s="1">
-        <f>J14*23.061</f>
+        <f t="shared" si="2"/>
         <v>-9.6486744331138627</v>
       </c>
     </row>
@@ -2293,7 +1085,7 @@
         <v>-0.38038937999999689</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.7721594921799291</v>
       </c>
       <c r="I15" s="1">
@@ -2304,7 +1096,7 @@
         <v>-0.51210149999997157</v>
       </c>
       <c r="K15" s="1">
-        <f>J15*23.061</f>
+        <f t="shared" si="2"/>
         <v>-11.809572691499344</v>
       </c>
     </row>
@@ -2332,7 +1124,7 @@
         <v>-0.70323253999958979</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-16.21724560493054</v>
       </c>
       <c r="I16" s="1">
@@ -2343,7 +1135,7 @@
         <v>-0.89245399999981601</v>
       </c>
       <c r="K16" s="1">
-        <f>J16*23.061</f>
+        <f t="shared" si="2"/>
         <v>-20.580881693995757</v>
       </c>
     </row>
@@ -2371,7 +1163,7 @@
         <v>-0.43052611000007346</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.9283626227116937</v>
       </c>
       <c r="I17" s="1">
@@ -2382,7 +1174,7 @@
         <v>-0.61237729999993462</v>
       </c>
       <c r="K17" s="1">
-        <f>J17*23.061</f>
+        <f t="shared" si="2"/>
         <v>-14.122032915298492</v>
       </c>
     </row>
@@ -2410,12 +1202,20 @@
         <v>-0.97606085999996139</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-22.50893949245911</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="I18" s="1">
+        <v>-4493.5458151299999</v>
+      </c>
+      <c r="J18" s="1">
+        <f>I18-I30-I42</f>
+        <v>-1.273630470000171</v>
+      </c>
+      <c r="K18" s="1">
+        <f>J18*23.061</f>
+        <v>-29.371192268673944</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
@@ -2456,7 +1256,7 @@
         <v>-0.16320121999996218</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.7635833344191276</v>
       </c>
       <c r="I20" s="1">
@@ -2467,7 +1267,7 @@
         <v>-0.14220958999993627</v>
       </c>
       <c r="K20" s="1">
-        <f>J20*23.061</f>
+        <f t="shared" ref="K20:K26" si="3">J20*23.061</f>
         <v>-3.2794953549885304</v>
       </c>
     </row>
@@ -2495,7 +1295,7 @@
         <v>-0.4223710499999811</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.7402987840495641</v>
       </c>
       <c r="I21" s="1">
@@ -2506,7 +1306,7 @@
         <v>-0.56363709999993716</v>
       </c>
       <c r="K21" s="1">
-        <f>J21*23.061</f>
+        <f t="shared" si="3"/>
         <v>-12.998035163098551</v>
       </c>
     </row>
@@ -2534,7 +1334,7 @@
         <v>-0.23241205999994463</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.3596545156587228</v>
       </c>
       <c r="I22" s="1">
@@ -2545,7 +1345,7 @@
         <v>-0.47688737999988007</v>
       </c>
       <c r="K22" s="1">
-        <f>J22*23.061</f>
+        <f t="shared" si="3"/>
         <v>-10.997499870177235</v>
       </c>
     </row>
@@ -2573,7 +1373,7 @@
         <v>-0.27414722000003167</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.3221090404207301</v>
       </c>
       <c r="I23" s="1">
@@ -2584,7 +1384,7 @@
         <v>-0.25195349999989958</v>
       </c>
       <c r="K23" s="1">
-        <f>J23*23.061</f>
+        <f t="shared" si="3"/>
         <v>-5.810299663497684</v>
       </c>
     </row>
@@ -2612,7 +1412,7 @@
         <v>-0.21724408000000039</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.0098657288800093</v>
       </c>
       <c r="I24" s="1">
@@ -2623,7 +1423,7 @@
         <v>-0.18736893000004784</v>
       </c>
       <c r="K24" s="1">
-        <f>J24*23.061</f>
+        <f t="shared" si="3"/>
         <v>-4.3209148947311036</v>
       </c>
     </row>
@@ -2651,7 +1451,7 @@
         <v>-0.43370624000021962</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-10.001699600645065</v>
       </c>
       <c r="I25" s="1">
@@ -2662,7 +1462,7 @@
         <v>-0.40264843999966615</v>
       </c>
       <c r="K25" s="1">
-        <f>J25*23.061</f>
+        <f t="shared" si="3"/>
         <v>-9.285475674832302</v>
       </c>
     </row>
@@ -2690,7 +1490,7 @@
         <v>-0.7264374599999428</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-16.75237426505868</v>
       </c>
       <c r="I26" s="1">
@@ -2701,7 +1501,7 @@
         <v>-0.92854850000003353</v>
       </c>
       <c r="K26" s="1">
-        <f>J26*23.061</f>
+        <f t="shared" si="3"/>
         <v>-21.413256958500774</v>
       </c>
     </row>
@@ -3055,7 +1855,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3063,11 +1862,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Fireball Test.xlsx
+++ b/Fireball Test.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="S22" sheetId="1" r:id="rId1"/>
-    <sheet name="H2O CH4" sheetId="3" r:id="rId2"/>
+    <sheet name="H2O&amp;CH4" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'S22'!$I$1:$I$26</definedName>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
   <si>
     <t>2-pyridoxine 2-aminopyridine complex</t>
   </si>
@@ -206,13 +206,64 @@
   </si>
   <si>
     <t>Both monomer and dimer minimized</t>
+  </si>
+  <si>
+    <t>Fdata-HCNOS-extended</t>
+  </si>
+  <si>
+    <t>Fdata-HC/HO</t>
+  </si>
+  <si>
+    <t>Fdata-HC-provided</t>
+  </si>
+  <si>
+    <t>fireball.x</t>
+  </si>
+  <si>
+    <t>fireball.18.10-intel64-double.x</t>
+  </si>
+  <si>
+    <t>Water Dimer</t>
+  </si>
+  <si>
+    <t>E interaction</t>
+  </si>
+  <si>
+    <t>Methane Dimer</t>
+  </si>
+  <si>
+    <t>CCSD(T)</t>
+  </si>
+  <si>
+    <t>MP2</t>
+  </si>
+  <si>
+    <t>1. Compilation of the fireball executable is good.</t>
+  </si>
+  <si>
+    <t>* Fdata-HCNOS-extended &amp; Fdata-HC-provided are example interaction datasets that can be found on http://fireball.ftmc.uam.es/moodle/course/view.php?id=8</t>
+  </si>
+  <si>
+    <t>** Fdata-HC/HO are interactions precalculated by me (Linghan)</t>
+  </si>
+  <si>
+    <t>*** fireball.x is compiled by me (Linghan), fireball.18.10-intel64-double.x can be found on http://fireball.ftmc.uam.es/moodle/course/view.php?id=8</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>2. It is the difference in Fdata caused the problem. The cutoff is the main issue. Details of the cutoff choosen by software distributer can be found in info.dat.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,21 +279,58 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -250,24 +338,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,7 +663,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,7 +675,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F22" sqref="F22"/>
+      <selection pane="topRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -567,38 +693,38 @@
     <col min="11" max="11" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="28.5">
+      <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -618,46 +744,46 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>-5.0199999999999996</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>-5.03</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>-932.44943909000006</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <f>F3-F44-F44</f>
         <v>-0.39836869000009756</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="4">
         <f>G3*23.061</f>
         <v>-9.18678036009225</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>-932.54962505000003</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <f>I3-I44-I44</f>
         <v>-0.49471603000006326</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <f t="shared" ref="K3:K9" si="0">J3*23.061</f>
         <v>-11.408646367831459</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -696,7 +822,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -735,7 +861,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -774,7 +900,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -813,7 +939,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -852,7 +978,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -891,7 +1017,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="1"/>
@@ -906,46 +1032,46 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>10</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>-0.53</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>-0.51</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>-435.57549759</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <f>F11-F39-F39</f>
         <v>-3.9315069999986463E-2</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="4">
         <f t="shared" si="1"/>
         <v>-0.90664482926968781</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>-436.08521417999998</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <f>I11-I39-I39</f>
         <v>-0.25431068000000323</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <f t="shared" ref="K11:K17" si="2">J11*23.061</f>
         <v>-5.8646585914800742</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -984,7 +1110,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1023,7 +1149,7 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1062,7 +1188,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1101,7 +1227,7 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1140,7 +1266,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1179,7 +1305,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1218,7 +1344,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="1"/>
@@ -1233,7 +1359,7 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1272,7 +1398,7 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1311,7 +1437,7 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1350,7 +1476,7 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1389,7 +1515,7 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1428,7 +1554,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1467,7 +1593,7 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1860,12 +1986,398 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="28.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15">
+      <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="7">
+        <v>-466.85471296999998</v>
+      </c>
+      <c r="C2" s="7">
+        <v>-466.0274665</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="7">
+        <v>-933.91178552999997</v>
+      </c>
+      <c r="H2" s="7">
+        <v>-932.54960974000005</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="7">
+        <v>-466.85471296999998</v>
+      </c>
+      <c r="C3" s="7">
+        <v>-466.08521458000001</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="7">
+        <v>-933.91178551999997</v>
+      </c>
+      <c r="H3" s="7">
+        <v>-932.54960974000005</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="15">
+      <c r="A6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="15">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="8">
+        <f>(G2-B2-B2)*23.061</f>
+        <v>-4.6666145049903358</v>
+      </c>
+      <c r="C7" s="7">
+        <f>(H2-C2-C2)*23.061</f>
+        <v>-11.407740301141047</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9">
+        <v>-5.0199999999999996</v>
+      </c>
+      <c r="G7" s="9">
+        <v>-5.03</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="8">
+        <f>(G3-B3-B3)*23.061</f>
+        <v>-4.6666142743801533</v>
+      </c>
+      <c r="C8" s="7">
+        <f>(H3-C3-C3)*23.061</f>
+        <v>-8.7442833553805706</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="15">
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="7">
+        <v>-218.09811882</v>
+      </c>
+      <c r="C12" s="7">
+        <v>-217.91545174999999</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="7">
+        <v>-436.18141127000001</v>
+      </c>
+      <c r="H12" s="7">
+        <v>-436.08521458000001</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="7">
+        <v>-218.09811880999999</v>
+      </c>
+      <c r="C13" s="7">
+        <v>-217.91545174999999</v>
+      </c>
+      <c r="D13" s="7">
+        <v>-216.17789346999999</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7">
+        <v>-436.18141133</v>
+      </c>
+      <c r="H13" s="7">
+        <v>-436.08521458000001</v>
+      </c>
+      <c r="I13" s="7">
+        <v>-432.37509517000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="7">
+        <f>(G12-B12-B12)*23.061</f>
+        <v>0.34191091856954375</v>
+      </c>
+      <c r="C17" s="7">
+        <f>(H12-C12-C12)*23.061</f>
+        <v>-5.8646678158808374</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9">
+        <v>-0.53</v>
+      </c>
+      <c r="G17" s="9">
+        <v>-0.51</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="7">
+        <f>(G13-B13-B13)*23.061</f>
+        <v>0.34190907368939111</v>
+      </c>
+      <c r="C18" s="7">
+        <f>(H13-C13-C13)*23.061</f>
+        <v>-5.8646678158808374</v>
+      </c>
+      <c r="D18" s="8">
+        <f>(I13-D13-D13)*23.061</f>
+        <v>-0.44526709203082016</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="6"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Fireball Test.xlsx
+++ b/Fireball Test.xlsx
@@ -261,7 +261,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -379,14 +379,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1986,10 +1986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2377,6 +2377,15 @@
         <v>75</v>
       </c>
     </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
